--- a/medicine/Handicap/Champions_(film,_2018)/Champions_(film,_2018).xlsx
+++ b/medicine/Handicap/Champions_(film,_2018)/Champions_(film,_2018).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Champions (Campeones) est une comédie dramatique espagnole réalisée par Javier Fesser. Le film est sorti le 6 avril 2018 en Espagne et le 13 octobre 2018[1] en France. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Champions (Campeones) est une comédie dramatique espagnole réalisée par Javier Fesser. Le film est sorti le 6 avril 2018 en Espagne et le 13 octobre 2018 en France. 
 </t>
         </is>
       </c>
@@ -511,12 +523,49 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marco Montes est l'entraîneur adjoint de l'équipe de basket de l'Estudiantes Madrid en Liga ACB. Personnage arrogant et de mauvaises manières, il finit par être licencié de son travail après une altercation en plein match avec l'entraineur principal de l'équipe.    
 Parallèlement, son couple bat de l'aile car Sonia, sa compagne, désire un enfant, mais lui tergiverse et fuit cette responsabilité. Un soir, il s'enivre de dépit dans un bar et prend le volant. Il est alors responsable d'un accident de la route. Arrêté en état d'ivresse avancée, il se voit puni d'une lourde amende. Il doit alors choisir entre deux années de prison ou 90 jours de travaux d'intérêt généraux au sein d'une équipe de basket appelée "Les Amis" et constituée de sportifs débutants handicapés. Après un premier rejet de l'idée, il finit par s'y plier à contrecœur, jusqu'à découvrir qu'il peut beaucoup apprendre du monde du handicap. Peu à peu, l'équipe devient de plus en plus compétitive et se qualifie pour le championnat national.   
-Résumé détaillé
-Marco Montes (Javier Gutiérrez Álvarez) est l'adjoint de l'entraîneur de l'équipe de basket de l'EstudianteMadrid, Francisco Carrascosa (Daniel Freire). Faisant face à beaucoup de stress depuis que sa femme Sonia (Athenea Mata) et lui sont en froid en raison du désir de la première d'avoir un enfant, Marco agresse son supérieur pendant un match après s'être disputé avec lui quant à la stratégie de l'équipe et au comportement de Marco. Le soir venu, Marco se saoule dans un bar, ce qui l'amène à conduire en état d'ivresse et a causer un accident avec une voiture de police. Marco est arrêté et condamné par la juge Victoria (Laura Barba) à une peine de travaux d'intérêt général de 90 jours, au cours desquels il devra entraîner l'équipe de basket de l'association Les Amis, qui regroupe des individus souffrant de divers handicaps mentaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Champions_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Champions_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marco Montes (Javier Gutiérrez Álvarez) est l'adjoint de l'entraîneur de l'équipe de basket de l'EstudianteMadrid, Francisco Carrascosa (Daniel Freire). Faisant face à beaucoup de stress depuis que sa femme Sonia (Athenea Mata) et lui sont en froid en raison du désir de la première d'avoir un enfant, Marco agresse son supérieur pendant un match après s'être disputé avec lui quant à la stratégie de l'équipe et au comportement de Marco. Le soir venu, Marco se saoule dans un bar, ce qui l'amène à conduire en état d'ivresse et a causer un accident avec une voiture de police. Marco est arrêté et condamné par la juge Victoria (Laura Barba) à une peine de travaux d'intérêt général de 90 jours, au cours desquels il devra entraîner l'équipe de basket de l'association Les Amis, qui regroupe des individus souffrant de divers handicaps mentaux.
 En dépit de sa profonde réticence et de ses préjugés envers les personnes handicapées, Marco est accueilli avec enthousiasme par le responsable de l'association, Julio (Juan Margallo). Marco commence à entraîner l'équipe, mais éprouve beaucoup de difficultés à s'adapter aux différents troubles dont souffrent les membres de l'équipe, notamment en raison de leurs difficultés à rester concentrés, à comprendre les instructions de Marco ou à respecter les conventions sociales auxquelles il est habitué. Il remarque toutefois le talent d'un des joueurs qui reste à l'écart des autres, Román.
 Marco tente tant bien que mal de préparer son équipe à leur premier match de compétition, découvrant peu à peu la vie de ses joueurs, aidé par Julian qui le pousse à ouvrir les yeux sur les membres des Amis et à se rendre compte des efforts qu'ils accomplissent au quotidien, au basket comme dans le reste de leur vie. Le soir après le match, Marco se rend dans un bar, où Sonia le retrouve pour tenter de réparer leur relation, mais Marco reste rétif et ils se disputent à nouveau. En dépit de ces difficultés, Marco continue à se consacrer à son équipe, et parvient même à aider l'un des membres, Juanma (Daniel Sanz), à surmonter sa peur de l'eau.
 L'équipe des Amis joue un nouveau match, accueillant à cette occasion Collantes, une joueuse particulièrement caractérielle. S'adaptant de plus en plus à son équipe, Marco parvient à leur faire arracher la victoire. Toutefois, lors du voyage de retour de Cuenca, le chauffeur et les autres passagers perdent patience face aux joueurs handicapés, et la situation dérape lorsque Collantes frappe le chauffeur qui se montrait odieux avec elle. Marco et les joueurs sont exclus du bus, mais parviennent toutefois à rentrer. Le soir, Marco rend visite à Sonia, mais les deux se disputent à nouveau. Toutefois, grâce à Sonia et à son collègue Antonio, propriétaire d'un camping-car, l'équipe dispose désormais d'un moyen de transport.
@@ -528,31 +577,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Champions_(film,_2018)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Champions_(film,_2018)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Réalisateur : Javier Fesser : Películas Pendelton, Morena Films et Movistar+, TVE et Universal Pictures International Espagne
 Photographie : Chechu Graf
@@ -563,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Champions_(film,_2018)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Champions_(film,_2018)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Javier Gutiérrez Álvarez : Marco Montes, l'entraîneur de basket
 Juan Margallo (es) : Julio, le responsable de l'équipe de basket « Les Amis »
@@ -596,39 +649,8 @@
 Daniel Freire (es) : Paco Carrascosa, l'entraîneur de l'Estudiantes Madrid
 Itziar Castro : la mère du basketteur Jesús
 les basketteurs de l'équipe « Les Amis » (acteurs occasionnels) :
-Le film a été tourné pendant environ neuf semaines dans diverses zones de la Communauté de Madrid et dans la province de Huelva[2].
+Le film a été tourné pendant environ neuf semaines dans diverses zones de la Communauté de Madrid et dans la province de Huelva.
 Durant les premières séquences du film, l'action se déroule durant un véritable match de basket de Liga ACB opposant l'Estudiantes Madrid à l'Iberostar Tenerife. L'international français Edwin Jackson apparait en caméo.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Champions_(film,_2018)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Champions_(film,_2018)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Box-office</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Espagne, la première semaine de projection dépasse les 250 000 spectateurs et rapporte une somme estimée à 1 977 994 euros. Campeones est la meilleure première de la production cinématographique espagnole depuis Tadeo Jones 2: La Aventura del Rey Midas en août 2017.
 </t>
         </is>
       </c>
@@ -654,15 +676,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Espagne, la première semaine de projection dépasse les 250 000 spectateurs et rapporte une somme estimée à 1 977 994 euros. Campeones est la meilleure première de la production cinématographique espagnole depuis Tadeo Jones 2: La Aventura del Rey Midas en août 2017.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Champions_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Champions_(film,_2018)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Récompenses
-Prix Feroz 2019[3],[4]
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Feroz 2019,
 meilleure comédie
-Goyas 2019[5],[6]
+Goyas 2019,
 Prix Goya du meilleur film.
 Prix Goya du meilleur espoir masculin pour Jesús Vidal.
 Prix Goya de la meilleure chanson originale pour Este es el momento de Coque Malla.</t>
